--- a/templeite.xlsx
+++ b/templeite.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397C25F7-D839-44DF-8949-76F63726D1E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$2:$N$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID DGMP</t>
   </si>
@@ -64,12 +65,15 @@
   </si>
   <si>
     <t>CIDADE</t>
+  </si>
+  <si>
+    <t>Responsabilidade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,11 +499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,12 +517,12 @@
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.42578125" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -533,9 +537,10 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="9"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -570,13 +575,16 @@
         <v>9</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -589,18 +597,19 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L8" s="2"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M2"/>
+  <autoFilter ref="A2:N2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
